--- a/Multi-link.xlsx
+++ b/Multi-link.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14940"/>
+    <workbookView windowWidth="25500" windowHeight="11330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>生产线</t>
   </si>
@@ -29,84 +24,24 @@
     <t>App/Lib公共层</t>
   </si>
   <si>
+    <t>App-Lib公共层</t>
+  </si>
+  <si>
     <t>App层</t>
   </si>
   <si>
     <t>Lib层</t>
   </si>
   <si>
-    <t>公共层</t>
-  </si>
-  <si>
     <t>基础层</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>App生产线</t>
   </si>
   <si>
-    <t xml:space="preserve">add_deploy()
-add_deploy_config()
-add_deploy_library()
-add_deploy_library_bundle()
-add_deploy_libraryes()
-has_deployed_library()
-add_dependent_library()
-add_dependent_manager()
-add_custom_dependent_manager()
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add_include()
-add_include_bundle()
-add_library()
-add_library_bundle()
-add_link_library()
-add_link_library_bundle()
-</t>
-  </si>
-  <si>
-    <t>add_version()
-add_language()</t>
-  </si>
-  <si>
-    <t>system_errcode()
-mkdir()
-empty_file()
-write_line()
-copy_dir_and_file()
-is_same_file()
-read_ini()
-write_ini()
-user_home()
-user_config_path()</t>
-  </si>
-  <si>
-    <t>Lib生产线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这两层的函数，多数，参数1为libGroupName，参数2为libName，参数3为libRealName。
-基本上没有更多的冗余参数，以避免用户在使用过程中迷糊。
-</t>
-  </si>
-  <si>
-    <t>* 不要随便调用，内部有所调用，威力巨大。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_source_dir()
-add_build_dir()
-add_project_name()
-add_sdk()
-add_sdk_to_Qt()
-add_sdk_header()
-del_sdk()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_app_project()*
+    <t xml:space="preserve">add_version()
+add_language()
+add_app_project()*
 add_lib_project()*
 add_decorate_target_name()
 add_target_name()
@@ -118,15 +53,99 @@
 add_defines()
 add_post_link()
 add_pre_link()
-add_host_path()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+add_host_path()
+add_source_dir()
+add_build_dir()
+add_project_name()
+add_dependent_library()
+add_dependent_manager()
+add_custom_dependent_manager()
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_library_XXX.pri
+add_include_LibName()
+add_library_LibName()
+add_defines_LibName()
+add_link_library_LibName()*
+add_deploy_library_LibName()*
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_deploy()
+add_deploy_config()
+add_deploy_library()
+add_deploy_library_bundle()
+add_deploy_libraryes()
+has_deployed_library()
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_include()
+add_include_bundle()
+add_library()
+add_library_bundle()
+add_link_library()
+add_link_library_bundle()
+</t>
+  </si>
+  <si>
+    <t>system_errcode()
+mkdir()
+empty_file()
+write_line()
+copy_dir_and_file()
+is_same_file()
+read_ini()
+write_ini()
+user_home()
+user_config_path()</t>
+  </si>
+  <si>
+    <t>Lib生产线</t>
+  </si>
+  <si>
+    <t>add_source_dir()
+add_build_dir()
+add_project_name()
+add_sdk()
+add_sdk_to_Qt()
+add_sdk_header()
+del_sdk()</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>* 不要随便调用，内部有所调用，威力巨大。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这两层的函数，多数，参数1为libGroupName，参数2为libName，参数3为libRealName。
+基本上没有更多的冗余参数，以避免用户在使用过程中迷糊。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_library_XXX.pri
+这个文件App生产线实现、Lib生产线实现、Multi-link实现都可以。
+对这个文件引用方式：
+add_dependent_manager(LibName)
+add_custom_dependent_manager(LibName)
+App和Lib通用，base manager自行处理是否发布Library的问题。
+用户对里面的函数检查、实现，即可完成链接LibName的工作，最重要的是，关于Library终于不用再考虑Library的路径问题了，跨平台非常友好。
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,21 +154,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -157,33 +500,346 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -474,31 +1130,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="2" max="3" width="39.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="37.6636363636364" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="25.3363636363636" customWidth="1"/>
+    <col min="7" max="7" width="10.1545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,105 +1173,108 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" ht="153" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="220" customHeight="1">
-      <c r="A2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="146" customHeight="1">
-      <c r="A3" t="s">
+    <row r="3" ht="188" customHeight="1" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" ht="32" customHeight="1" spans="1:5">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11"/>
     </row>
-    <row r="4" spans="1:7" ht="32" customHeight="1">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" ht="129" customHeight="1" spans="1:5">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C4:D4"/>
+  <mergeCells count="5">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Multi-link.xlsx
+++ b/Multi-link.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25500" windowHeight="11340"/>
+    <workbookView windowWidth="25500" windowHeight="11330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$5</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>生产线</t>
   </si>
@@ -47,10 +42,10 @@
     <t>App生产线</t>
   </si>
   <si>
-    <t xml:space="preserve">add_version()
+    <t>add_version()
 add_language()
-add_app_project()*
-add_lib_project()*
+add_app_project()* (app only)
+add_lib_project()* (lib only)
 add_decorate_target_name()
 add_target_name()
 add_decorate_target()*
@@ -68,7 +63,10 @@
 add_dependent_library()
 add_dependent_manager()
 add_custom_dependent_manager()
-</t>
+add_export_manager() (lib only)
+add_source_dir()
+add_build_dir()
+add_project_name()</t>
   </si>
   <si>
     <t xml:space="preserve">add_library_XXX.pri
@@ -77,6 +75,7 @@
 add_defines_LibName()
 add_link_library_LibName()*
 add_deploy_library_LibName()*
+add_export_library_LibName()
 </t>
   </si>
   <si>
@@ -98,7 +97,7 @@
 </t>
   </si>
   <si>
-    <t>system_errcode()
+    <t xml:space="preserve">system_errcode()
 mkdir()
 empty_file()
 write_line()
@@ -107,19 +106,18 @@
 read_ini()
 write_ini()
 user_home()
-user_config_path()</t>
+user_config_path()
+</t>
   </si>
   <si>
     <t>Lib生产线</t>
   </si>
   <si>
-    <t>add_source_dir()
-add_build_dir()
-add_project_name()
-add_sdk()
+    <t xml:space="preserve">add_sdk()
 add_sdk_to_Qt()
 add_sdk_header()
-del_sdk()</t>
+del_sdk()
+</t>
   </si>
   <si>
     <t>备注</t>
@@ -131,6 +129,9 @@
     <t xml:space="preserve">这两层的函数，多数，参数1为libGroupName，参数2为libName，参数3为libRealName。
 基本上没有更多的冗余参数，以避免用户在使用过程中迷糊。
 </t>
+  </si>
+  <si>
+    <t>还有相应的get函数</t>
   </si>
   <si>
     <t xml:space="preserve">add_library_XXX.pri
@@ -142,12 +143,22 @@
 用户对里面的函数检查、实现，即可完成链接LibName的工作，最重要的是，关于Library终于不用再考虑Library的路径问题了，跨平台非常友好。
 </t>
   </si>
+  <si>
+    <t>add_export_manager() 这个函数概念比较难理解。用于Lib生产线包含头文件和define。它用的头文件pri就是add_library_XXX.pri。可是add_library_XXX.pri用于App生产线链接Library用的，
+怎么会能用于Library生产线包含头文件呢？因为它内部有add include和add defines的实现，既可以用于包含SDK头文件，又能用于Library自己包含源代码头文件，头文件目录结构是一样的。这是需要理解一下。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,21 +167,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -178,13 +513,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,32 +777,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -516,33 +1137,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="2" max="3" width="39.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="37.6636363636364" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="31.7636363636364" customWidth="1"/>
+    <col min="7" max="7" width="10.1636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,14 +1183,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="153" customHeight="1">
+    <row r="2" ht="153" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -578,103 +1199,110 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="188" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="212" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="32" customHeight="1">
+    <row r="4" ht="32" customHeight="1" spans="1:6">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="7"/>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="129" customHeight="1">
+    <row r="5" ht="129" customHeight="1" spans="1:5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
+    <row r="6" ht="30" customHeight="1" spans="1:6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Multi-link.xlsx
+++ b/Multi-link.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14940"/>
+    <workbookView windowWidth="25500" windowHeight="11330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,19 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$5</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>生产线</t>
   </si>
@@ -47,105 +42,10 @@
     <t>App生产线</t>
   </si>
   <si>
-    <t xml:space="preserve">add_deploy()
-add_deploy_config()
-add_deploy_library()
-add_deploy_library_bundle()
-add_deploy_libraryes()
-has_deployed_library()
-</t>
-  </si>
-  <si>
-    <t>Lib生产线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add_sdk()
-add_sdk_to_Qt()
-add_sdk_header()
-del_sdk()
-</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>还有相应的get函数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add_library_XXX.pri
-这个文件App生产线实现、Lib生产线实现、Multi-link实现都可以。
-对这个文件引用方式：
-add_dependent_manager(LibName)
-add_custom_dependent_manager(LibName)
-App和Lib通用，base manager自行处理是否发布Library的问题。
-用户对里面的函数检查、实现，即可完成链接LibName的工作，最重要的是，关于Library终于不用再考虑Library的路径问题了，跨平台非常友好。
-</t>
-  </si>
-  <si>
-    <t>add_export_manager() 这个函数概念比较难理解。用于Lib生产线包含头文件和define。它用的头文件pri就是add_library_XXX.pri。可是add_library_XXX.pri用于App生产线链接Library用的，
-怎么会能用于Library生产线包含头文件呢？因为它内部有add include和add defines的实现，既可以用于包含SDK头文件，又能用于Library自己包含源代码头文件，头文件目录结构是一样的。这是需要理解一下。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system_errcode()
-mkdir()
-empty_file()
-write_line()
-copy_dir_and_file()
-is_same_file()
-read_ini()
-write_ini()
-user_home()
-user_config_path()
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">add_include()
-add_include_bundle()
-add_library()
-add_library_bundle()
-add_standard_library()
-add_standard_library_bundle()
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">这两层的函数，多数，参数1为libGroupName，参数2为libName，参数3为libRealName。参数3还经常省略。
-基本上没有更多的冗余参数，以避免用户在使用过程中迷糊。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">add_library_XXX.pri
-add_include_LibName()
-add_library_LibName()
-add_defines_LibName()
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_app_project()*
-add_dependent_library()
-add_dependent_manager()
-add_custom_dependent_manager()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_lib_project()*
-add_export_library()
-add_export_manager()
-add_link_library()
-add_link_manager()
-add_custom_link_manager()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 不要随便调用，内部有所调用，威力巨大，有度的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_version()
+    <t xml:space="preserve">add_version()
 add_language()
+add_app_project()*
+add_lib_project()*
 add_decorate_target_name()
 add_target_name()
 add_decorate_target()*
@@ -161,19 +61,98 @@
 add_build_dir()
 add_project_name()
 add_host_name()
-add_xplatform_name()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App/Lib层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+add_xplatform_name()
+add_dependent_library()
+add_dependent_manager()
+add_custom_dependent_manager()
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_library_XXX.pri
+add_include_LibName()
+add_library_LibName()
+add_defines_LibName()
+add_include_LibName1()
+add_library_LibName1()
+add_defines_LibName1()
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_deploy()
+add_deploy_config()
+add_deploy_library()
+add_deploy_library_bundle()
+add_deploy_libraryes()
+has_deployed_library()
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_include()
+add_include_bundle()
+add_library()
+add_library_bundle()
+add_link_library()
+add_link_library_bundle()
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system_errcode()
+mkdir()
+empty_file()
+write_line()
+copy_dir_and_file()
+is_same_file()
+read_ini()
+write_ini()
+user_home()
+user_config_path()
+</t>
+  </si>
+  <si>
+    <t>Lib生产线</t>
+  </si>
+  <si>
+    <t>add_sdk()
+add_sdk_to_Qt()
+add_sdk_header()
+del_sdk()</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>* 不要随便调用，内部有所调用，威力巨大，有度的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这两层的函数，多数，参数1为libGroupName，参数2为libName，参数3为libRealName。参数3还经常省略。
+基本上没有更多的冗余参数，以避免用户在使用过程中迷糊。
+</t>
+  </si>
+  <si>
+    <t>还有相应的get函数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_library_XXX.pri
+这个文件App生产线实现、Lib生产线实现、Multi-link实现都可以。
+</t>
+  </si>
+  <si>
+    <t>关于删除add_link_manager()的决定
+它其实是专门为library而存在的管理器，管理library的链接依赖库的工作，而不会发布依赖库。
+在Multi-link里，我用add_dependent_manager()兼容了app使用依赖库的方式和lib使用链接库的方式。所以删除专门为lib准备的接口，使用app兼容lib接口。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,21 +161,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -204,13 +507,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,22 +778,60 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -539,195 +1122,173 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
-    <col min="6" max="6" width="51.33203125" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="39.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="37.6636363636364" customWidth="1"/>
+    <col min="5" max="5" width="51.3363636363636" customWidth="1"/>
+    <col min="6" max="6" width="31.8363636363636" customWidth="1"/>
+    <col min="7" max="7" width="10.1636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="153" customHeight="1">
+    <row r="2" ht="153" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="225" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" ht="48" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="35" customHeight="1" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="51" customHeight="1" spans="1:6">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="212" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="32" customHeight="1">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="105" customHeight="1">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Multi-link.xlsx
+++ b/Multi-link.xlsx
@@ -93,6 +93,7 @@
 add_library_bundle()
 add_link_library()
 add_link_library_bundle()
+add_library_path()
 </t>
   </si>
   <si>
@@ -148,9 +149,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -161,22 +162,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +200,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -216,21 +272,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,53 +292,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -320,13 +321,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,163 +477,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +529,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,43 +601,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,133 +626,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,7 +1136,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/Multi-link.xlsx
+++ b/Multi-link.xlsx
@@ -42,7 +42,7 @@
     <t>App生产线</t>
   </si>
   <si>
-    <t xml:space="preserve">add_version()
+    <t>add_version()
 add_language()
 add_app_project()*
 add_lib_project()*
@@ -65,7 +65,7 @@
 add_dependent_library()
 add_dependent_manager()
 add_custom_dependent_manager()
-</t>
+clean_target()</t>
   </si>
   <si>
     <t xml:space="preserve">add_library_XXX.pri
@@ -116,7 +116,7 @@
     <t>add_sdk()
 add_sdk_to_Qt()
 add_sdk_header()
-del_sdk()</t>
+clean_sdk()</t>
   </si>
   <si>
     <t>备注</t>
@@ -149,9 +149,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -162,9 +162,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,14 +178,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +199,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -208,8 +221,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,15 +259,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,20 +269,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -279,28 +301,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,49 +315,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,13 +447,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,115 +483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,17 +509,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,11 +538,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +568,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -582,30 +606,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,133 +626,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,7 +1136,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/Multi-link.xlsx
+++ b/Multi-link.xlsx
@@ -42,7 +42,7 @@
     <t>App生产线</t>
   </si>
   <si>
-    <t>add_version()
+    <t xml:space="preserve">add_version()
 add_language()
 add_app_project()*
 add_lib_project()*
@@ -65,16 +65,15 @@
 add_dependent_library()
 add_dependent_manager()
 add_custom_dependent_manager()
-clean_target()</t>
+clean_target()
+add_include_path()
+</t>
   </si>
   <si>
     <t xml:space="preserve">add_library_XXX.pri
 add_include_LibName()
 add_library_LibName()
 add_defines_LibName()
-add_include_LibName1()
-add_library_LibName1()
-add_defines_LibName1()
 </t>
   </si>
   <si>
@@ -148,8 +147,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -162,22 +161,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +236,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,14 +252,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,84 +304,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -315,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,44 +510,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,11 +534,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,17 +582,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,7 +1135,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/Multi-link.xlsx
+++ b/Multi-link.xlsx
@@ -112,10 +112,12 @@
     <t>Lib生产线</t>
   </si>
   <si>
-    <t>add_sdk()
+    <t xml:space="preserve">add_sdk()
 add_sdk_to_Qt()
 add_sdk_header()
-clean_sdk()</t>
+clean_sdk()
+add_export()
+</t>
   </si>
   <si>
     <t>备注</t>
@@ -147,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -161,52 +163,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,15 +201,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,25 +216,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,18 +262,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -314,31 +316,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,114 +484,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,31 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,17 +507,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,35 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,15 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -605,6 +563,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -613,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,7 +1137,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/Multi-link.xlsx
+++ b/Multi-link.xlsx
@@ -79,6 +79,8 @@
   <si>
     <t xml:space="preserve">add_deploy()
 add_deploy_config()
+add_deploy_config_to()
+add_deploy_config_to_group()
 add_deploy_library()
 add_deploy_library_bundle()
 add_deploy_libraryes()
@@ -149,8 +151,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -177,9 +179,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,8 +209,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,78 +264,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,187 +318,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +509,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,21 +551,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -566,26 +588,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -593,16 +595,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -615,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,7 +1139,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/Multi-link.xlsx
+++ b/Multi-link.xlsx
@@ -44,6 +44,11 @@
   <si>
     <t xml:space="preserve">add_version()
 add_language()
+add_zh_CN()
+add_en_US()
+add_ru_RU()
+add_zh_CN_en_US()
+add_zh_CN_ru_RU()
 add_app_project()*
 add_lib_project()*
 add_decorate_target_name()
@@ -151,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -180,15 +185,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +213,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -241,69 +275,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,19 +329,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,49 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,103 +491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,20 +519,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,9 +558,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,45 +614,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -617,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,130 +634,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,7 +1144,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1194,7 +1199,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="225" customHeight="1" spans="1:7">
+    <row r="3" ht="288" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
